--- a/18회차_실습체크리스트_양현모.xlsx
+++ b/18회차_실습체크리스트_양현모.xlsx
@@ -205,28 +205,87 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>01 DBMS 개요, 설치, 전체 운영 실습</t>
-  </si>
-  <si>
-    <t>02 데이터베이스 모델링, MySQL 유틸리티 사용법</t>
-  </si>
-  <si>
-    <t>03 SQL 기본</t>
-  </si>
-  <si>
-    <t>04 SQL 고급</t>
-  </si>
-  <si>
-    <t>06 인덱스, 사용자 관리</t>
-  </si>
-  <si>
-    <t>07 Java 연동 JDBC 프로그래밍</t>
-  </si>
-  <si>
-    <t>08 Java 연동 JDBC 프로그래밍-Travel</t>
-  </si>
-  <si>
-    <t>05 테이블, 뷰</t>
+    <t>01_mysql(기본)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_mysql(심화)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>02_mysql(기본)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>03_mysql(기본)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>제출일자: 5월 28일(수)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>04_mysql(기본)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>05_mysql(기본)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>06_mysql(기본)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>02_mysql(심화)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>03_mysql(심화)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>04_mysql(심화)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>05_mysql(심화)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>06_mysql(심화)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>07_mysql(기본)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>08_mysql(기본)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>07_mysql(심화)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>08_mysql(심화)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_mongo(기본)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>02_mongo(기본)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_mongo(심화)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>02_mongo(심화)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -235,97 +294,47 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>02 NoSQL 기반 MongoDB</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>01 DBMS 개요, 설치, 전체 운영 실습</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>02 데이터베이스 모델링, MySQL 유틸리티 사용법</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 SQL 기본</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>04 SQL 고급</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>05 테이블, 뷰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>06 인덱스, 사용자 관리</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>02 몽고DB Java연동</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>01 MongoDB</t>
-  </si>
-  <si>
-    <t>02 몽고DB Java연동</t>
-  </si>
-  <si>
-    <t>01_mysql(기본)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>01_mysql(심화)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>02_mysql(기본)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>03_mysql(기본)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>제출일자: 5월 28일(수)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>04_mysql(기본)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>05_mysql(기본)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>06_mysql(기본)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>02_mysql(심화)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>03_mysql(심화)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>04_mysql(심화)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>05_mysql(심화)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>06_mysql(심화)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>07_mysql(기본)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>08_mysql(기본)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>07_mysql(심화)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>08_mysql(심화)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>01_mongo(기본)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>02_mongo(기본)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>01_mongo(심화)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>02_mongo(심화)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>02 NoSQL 기반 MongoDB</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>07 Java 연동 JDBC 프로그래밍</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>08 Java 연동 JDBC 프로그래밍-Travel</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2545,8 +2554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2611,146 +2620,146 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="17" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="17"/>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="17"/>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="17"/>
       <c r="B10" s="4" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="17"/>
       <c r="B11" s="4" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="17"/>
       <c r="B12" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="17" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="17"/>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
       <c r="E14" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2773,7 +2782,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="9" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>

--- a/18회차_실습체크리스트_양현모.xlsx
+++ b/18회차_실습체크리스트_양현모.xlsx
@@ -725,15 +725,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
